--- a/results/ML/DT_cEnroll_nPSU_vs_Desertor/backwardElimination.xlsx
+++ b/results/ML/DT_cEnroll_nPSU_vs_Desertor/backwardElimination.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Reference\models\desertorstudent\results\ML\DT_cEnroll_nPSU_vs_Desertor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Reference\models\desertorstudent\results\ML\DT_cEnroll_nPSU_vs_Desertor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9DF551A-D1F1-4B18-8370-E6020EAC6559}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3125F72-3DE6-40C4-8A43-D1D1E2747195}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16800" yWindow="0" windowWidth="12000" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -117,8 +117,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.130
 Model:                            OLS   Adj. R-squared:                  0.091
 Method:                 Least Squares   F-statistic:                     3.343
-Date:                Sat, 28 Dec 2019   Prob (F-statistic):           4.01e-07
-Time:                        21:00:04   Log-Likelihood:                -303.41
+Date:                Sun, 29 Dec 2019   Prob (F-statistic):           4.01e-07
+Time:                        16:11:38   Log-Likelihood:                -303.41
 No. Observations:                 537   AIC:                             654.8
 Df Residuals:                     513   BIC:                             757.7
 Df Model:                          23                                         
@@ -167,8 +167,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.130
 Model:                            OLS   Adj. R-squared:                  0.093
 Method:                 Least Squares   F-statistic:                     3.502
-Date:                Sat, 28 Dec 2019   Prob (F-statistic):           2.09e-07
-Time:                        21:00:04   Log-Likelihood:                -303.41
+Date:                Sun, 29 Dec 2019   Prob (F-statistic):           2.09e-07
+Time:                        16:11:38   Log-Likelihood:                -303.41
 No. Observations:                 537   AIC:                             652.8
 Df Residuals:                     514   BIC:                             751.4
 Df Model:                          22                                         
@@ -216,8 +216,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.130
 Model:                            OLS   Adj. R-squared:                  0.095
 Method:                 Least Squares   F-statistic:                     3.675
-Date:                Sat, 28 Dec 2019   Prob (F-statistic):           1.06e-07
-Time:                        21:00:04   Log-Likelihood:                -303.41
+Date:                Sun, 29 Dec 2019   Prob (F-statistic):           1.06e-07
+Time:                        16:11:38   Log-Likelihood:                -303.41
 No. Observations:                 537   AIC:                             650.8
 Df Residuals:                     515   BIC:                             745.1
 Df Model:                          21                                         
@@ -264,8 +264,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.130
 Model:                            OLS   Adj. R-squared:                  0.097
 Method:                 Least Squares   F-statistic:                     3.865
-Date:                Sat, 28 Dec 2019   Prob (F-statistic):           5.28e-08
-Time:                        21:00:04   Log-Likelihood:                -303.43
+Date:                Sun, 29 Dec 2019   Prob (F-statistic):           5.28e-08
+Time:                        16:11:38   Log-Likelihood:                -303.43
 No. Observations:                 537   AIC:                             648.9
 Df Residuals:                     516   BIC:                             738.9
 Df Model:                          20                                         
@@ -311,8 +311,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.130
 Model:                            OLS   Adj. R-squared:                  0.098
 Method:                 Least Squares   F-statistic:                     4.072
-Date:                Sat, 28 Dec 2019   Prob (F-statistic):           2.61e-08
-Time:                        21:00:04   Log-Likelihood:                -303.46
+Date:                Sun, 29 Dec 2019   Prob (F-statistic):           2.61e-08
+Time:                        16:11:38   Log-Likelihood:                -303.46
 No. Observations:                 537   AIC:                             646.9
 Df Residuals:                     517   BIC:                             732.6
 Df Model:                          19                                         
@@ -357,8 +357,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.130
 Model:                            OLS   Adj. R-squared:                  0.099
 Method:                 Least Squares   F-statistic:                     4.285
-Date:                Sat, 28 Dec 2019   Prob (F-statistic):           1.40e-08
-Time:                        21:00:04   Log-Likelihood:                -303.64
+Date:                Sun, 29 Dec 2019   Prob (F-statistic):           1.40e-08
+Time:                        16:11:38   Log-Likelihood:                -303.64
 No. Observations:                 537   AIC:                             645.3
 Df Residuals:                     518   BIC:                             726.7
 Df Model:                          18                                         
@@ -402,8 +402,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.128
 Model:                            OLS   Adj. R-squared:                  0.100
 Method:                 Least Squares   F-statistic:                     4.489
-Date:                Sat, 28 Dec 2019   Prob (F-statistic):           8.96e-09
-Time:                        21:00:04   Log-Likelihood:                -304.08
+Date:                Sun, 29 Dec 2019   Prob (F-statistic):           8.96e-09
+Time:                        16:11:38   Log-Likelihood:                -304.08
 No. Observations:                 537   AIC:                             644.2
 Df Residuals:                     519   BIC:                             721.3
 Df Model:                          17                                         
@@ -446,8 +446,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.127
 Model:                            OLS   Adj. R-squared:                  0.100
 Method:                 Least Squares   F-statistic:                     4.718
-Date:                Sat, 28 Dec 2019   Prob (F-statistic):           5.60e-09
-Time:                        21:00:04   Log-Likelihood:                -304.51
+Date:                Sun, 29 Dec 2019   Prob (F-statistic):           5.60e-09
+Time:                        16:11:38   Log-Likelihood:                -304.51
 No. Observations:                 537   AIC:                             643.0
 Df Residuals:                     520   BIC:                             715.9
 Df Model:                          16                                         
@@ -489,8 +489,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.125
 Model:                            OLS   Adj. R-squared:                  0.100
 Method:                 Least Squares   F-statistic:                     4.982
-Date:                Sat, 28 Dec 2019   Prob (F-statistic):           3.35e-09
-Time:                        21:00:04   Log-Likelihood:                -304.92
+Date:                Sun, 29 Dec 2019   Prob (F-statistic):           3.35e-09
+Time:                        16:11:38   Log-Likelihood:                -304.92
 No. Observations:                 537   AIC:                             641.8
 Df Residuals:                     521   BIC:                             710.4
 Df Model:                          15                                         
@@ -531,8 +531,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.124
 Model:                            OLS   Adj. R-squared:                  0.100
 Method:                 Least Squares   F-statistic:                     5.261
-Date:                Sat, 28 Dec 2019   Prob (F-statistic):           2.20e-09
-Time:                        21:00:04   Log-Likelihood:                -305.47
+Date:                Sun, 29 Dec 2019   Prob (F-statistic):           2.20e-09
+Time:                        16:11:38   Log-Likelihood:                -305.47
 No. Observations:                 537   AIC:                             640.9
 Df Residuals:                     522   BIC:                             705.2
 Df Model:                          14                                         
@@ -572,8 +572,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.122
 Model:                            OLS   Adj. R-squared:                  0.100
 Method:                 Least Squares   F-statistic:                     5.567
-Date:                Sat, 28 Dec 2019   Prob (F-statistic):           1.52e-09
-Time:                        21:00:04   Log-Likelihood:                -306.11
+Date:                Sun, 29 Dec 2019   Prob (F-statistic):           1.52e-09
+Time:                        16:11:38   Log-Likelihood:                -306.11
 No. Observations:                 537   AIC:                             640.2
 Df Residuals:                     523   BIC:                             700.2
 Df Model:                          13                                         
@@ -612,8 +612,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.119
 Model:                            OLS   Adj. R-squared:                  0.099
 Method:                 Least Squares   F-statistic:                     5.926
-Date:                Sat, 28 Dec 2019   Prob (F-statistic):           1.02e-09
-Time:                        21:00:04   Log-Likelihood:                -306.74
+Date:                Sun, 29 Dec 2019   Prob (F-statistic):           1.02e-09
+Time:                        16:11:38   Log-Likelihood:                -306.74
 No. Observations:                 537   AIC:                             639.5
 Df Residuals:                     524   BIC:                             695.2
 Df Model:                          12                                         
@@ -651,8 +651,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.116
 Model:                            OLS   Adj. R-squared:                  0.097
 Method:                 Least Squares   F-statistic:                     6.257
-Date:                Sat, 28 Dec 2019   Prob (F-statistic):           9.78e-10
-Time:                        21:00:04   Log-Likelihood:                -307.83
+Date:                Sun, 29 Dec 2019   Prob (F-statistic):           9.78e-10
+Time:                        16:11:38   Log-Likelihood:                -307.83
 No. Observations:                 537   AIC:                             639.7
 Df Residuals:                     525   BIC:                             691.1
 Df Model:                          11                                         
@@ -689,8 +689,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.112
 Model:                            OLS   Adj. R-squared:                  0.095
 Method:                 Least Squares   F-statistic:                     6.618
-Date:                Sat, 28 Dec 2019   Prob (F-statistic):           1.06e-09
-Time:                        21:00:04   Log-Likelihood:                -309.09
+Date:                Sun, 29 Dec 2019   Prob (F-statistic):           1.06e-09
+Time:                        16:11:38   Log-Likelihood:                -309.09
 No. Observations:                 537   AIC:                             640.2
 Df Residuals:                     526   BIC:                             687.3
 Df Model:                          10                                         
@@ -726,8 +726,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.110
 Model:                            OLS   Adj. R-squared:                  0.094
 Method:                 Least Squares   F-statistic:                     7.207
-Date:                Sat, 28 Dec 2019   Prob (F-statistic):           6.67e-10
-Time:                        21:00:04   Log-Likelihood:                -309.74
+Date:                Sun, 29 Dec 2019   Prob (F-statistic):           6.67e-10
+Time:                        16:11:38   Log-Likelihood:                -309.74
 No. Observations:                 537   AIC:                             639.5
 Df Residuals:                     527   BIC:                             682.3
 Df Model:                           9                                         
@@ -762,8 +762,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.101
 Model:                            OLS   Adj. R-squared:                  0.089
 Method:                 Least Squares   F-statistic:                     8.487
-Date:                Sat, 28 Dec 2019   Prob (F-statistic):           7.28e-10
-Time:                        21:00:04   Log-Likelihood:                -312.33
+Date:                Sun, 29 Dec 2019   Prob (F-statistic):           7.28e-10
+Time:                        16:11:38   Log-Likelihood:                -312.33
 No. Observations:                 537   AIC:                             640.7
 Df Residuals:                     529   BIC:                             674.9
 Df Model:                           7                                         

--- a/results/ML/DT_cEnroll_nPSU_vs_Desertor/backwardElimination.xlsx
+++ b/results/ML/DT_cEnroll_nPSU_vs_Desertor/backwardElimination.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Reference\models\desertorstudent\results\ML\DT_cEnroll_nPSU_vs_Desertor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Reference\models\desertorstudent\results\ML\DT_cEnroll_nPSU_vs_Desertor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3125F72-3DE6-40C4-8A43-D1D1E2747195}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8931C79-5FEB-4537-A0C4-862EFEEC60FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16800" yWindow="0" windowWidth="12000" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -117,8 +117,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.130
 Model:                            OLS   Adj. R-squared:                  0.091
 Method:                 Least Squares   F-statistic:                     3.343
-Date:                Sun, 29 Dec 2019   Prob (F-statistic):           4.01e-07
-Time:                        16:11:38   Log-Likelihood:                -303.41
+Date:                Wed, 01 Jan 2020   Prob (F-statistic):           4.01e-07
+Time:                        23:19:14   Log-Likelihood:                -303.41
 No. Observations:                 537   AIC:                             654.8
 Df Residuals:                     513   BIC:                             757.7
 Df Model:                          23                                         
@@ -167,8 +167,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.130
 Model:                            OLS   Adj. R-squared:                  0.093
 Method:                 Least Squares   F-statistic:                     3.502
-Date:                Sun, 29 Dec 2019   Prob (F-statistic):           2.09e-07
-Time:                        16:11:38   Log-Likelihood:                -303.41
+Date:                Wed, 01 Jan 2020   Prob (F-statistic):           2.09e-07
+Time:                        23:19:14   Log-Likelihood:                -303.41
 No. Observations:                 537   AIC:                             652.8
 Df Residuals:                     514   BIC:                             751.4
 Df Model:                          22                                         
@@ -216,8 +216,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.130
 Model:                            OLS   Adj. R-squared:                  0.095
 Method:                 Least Squares   F-statistic:                     3.675
-Date:                Sun, 29 Dec 2019   Prob (F-statistic):           1.06e-07
-Time:                        16:11:38   Log-Likelihood:                -303.41
+Date:                Wed, 01 Jan 2020   Prob (F-statistic):           1.06e-07
+Time:                        23:19:14   Log-Likelihood:                -303.41
 No. Observations:                 537   AIC:                             650.8
 Df Residuals:                     515   BIC:                             745.1
 Df Model:                          21                                         
@@ -264,8 +264,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.130
 Model:                            OLS   Adj. R-squared:                  0.097
 Method:                 Least Squares   F-statistic:                     3.865
-Date:                Sun, 29 Dec 2019   Prob (F-statistic):           5.28e-08
-Time:                        16:11:38   Log-Likelihood:                -303.43
+Date:                Wed, 01 Jan 2020   Prob (F-statistic):           5.28e-08
+Time:                        23:19:14   Log-Likelihood:                -303.43
 No. Observations:                 537   AIC:                             648.9
 Df Residuals:                     516   BIC:                             738.9
 Df Model:                          20                                         
@@ -311,8 +311,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.130
 Model:                            OLS   Adj. R-squared:                  0.098
 Method:                 Least Squares   F-statistic:                     4.072
-Date:                Sun, 29 Dec 2019   Prob (F-statistic):           2.61e-08
-Time:                        16:11:38   Log-Likelihood:                -303.46
+Date:                Wed, 01 Jan 2020   Prob (F-statistic):           2.61e-08
+Time:                        23:19:14   Log-Likelihood:                -303.46
 No. Observations:                 537   AIC:                             646.9
 Df Residuals:                     517   BIC:                             732.6
 Df Model:                          19                                         
@@ -357,8 +357,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.130
 Model:                            OLS   Adj. R-squared:                  0.099
 Method:                 Least Squares   F-statistic:                     4.285
-Date:                Sun, 29 Dec 2019   Prob (F-statistic):           1.40e-08
-Time:                        16:11:38   Log-Likelihood:                -303.64
+Date:                Wed, 01 Jan 2020   Prob (F-statistic):           1.40e-08
+Time:                        23:19:14   Log-Likelihood:                -303.64
 No. Observations:                 537   AIC:                             645.3
 Df Residuals:                     518   BIC:                             726.7
 Df Model:                          18                                         
@@ -402,8 +402,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.128
 Model:                            OLS   Adj. R-squared:                  0.100
 Method:                 Least Squares   F-statistic:                     4.489
-Date:                Sun, 29 Dec 2019   Prob (F-statistic):           8.96e-09
-Time:                        16:11:38   Log-Likelihood:                -304.08
+Date:                Wed, 01 Jan 2020   Prob (F-statistic):           8.96e-09
+Time:                        23:19:14   Log-Likelihood:                -304.08
 No. Observations:                 537   AIC:                             644.2
 Df Residuals:                     519   BIC:                             721.3
 Df Model:                          17                                         
@@ -446,8 +446,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.127
 Model:                            OLS   Adj. R-squared:                  0.100
 Method:                 Least Squares   F-statistic:                     4.718
-Date:                Sun, 29 Dec 2019   Prob (F-statistic):           5.60e-09
-Time:                        16:11:38   Log-Likelihood:                -304.51
+Date:                Wed, 01 Jan 2020   Prob (F-statistic):           5.60e-09
+Time:                        23:19:14   Log-Likelihood:                -304.51
 No. Observations:                 537   AIC:                             643.0
 Df Residuals:                     520   BIC:                             715.9
 Df Model:                          16                                         
@@ -489,8 +489,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.125
 Model:                            OLS   Adj. R-squared:                  0.100
 Method:                 Least Squares   F-statistic:                     4.982
-Date:                Sun, 29 Dec 2019   Prob (F-statistic):           3.35e-09
-Time:                        16:11:38   Log-Likelihood:                -304.92
+Date:                Wed, 01 Jan 2020   Prob (F-statistic):           3.35e-09
+Time:                        23:19:14   Log-Likelihood:                -304.92
 No. Observations:                 537   AIC:                             641.8
 Df Residuals:                     521   BIC:                             710.4
 Df Model:                          15                                         
@@ -531,8 +531,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.124
 Model:                            OLS   Adj. R-squared:                  0.100
 Method:                 Least Squares   F-statistic:                     5.261
-Date:                Sun, 29 Dec 2019   Prob (F-statistic):           2.20e-09
-Time:                        16:11:38   Log-Likelihood:                -305.47
+Date:                Wed, 01 Jan 2020   Prob (F-statistic):           2.20e-09
+Time:                        23:19:14   Log-Likelihood:                -305.47
 No. Observations:                 537   AIC:                             640.9
 Df Residuals:                     522   BIC:                             705.2
 Df Model:                          14                                         
@@ -572,8 +572,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.122
 Model:                            OLS   Adj. R-squared:                  0.100
 Method:                 Least Squares   F-statistic:                     5.567
-Date:                Sun, 29 Dec 2019   Prob (F-statistic):           1.52e-09
-Time:                        16:11:38   Log-Likelihood:                -306.11
+Date:                Wed, 01 Jan 2020   Prob (F-statistic):           1.52e-09
+Time:                        23:19:14   Log-Likelihood:                -306.11
 No. Observations:                 537   AIC:                             640.2
 Df Residuals:                     523   BIC:                             700.2
 Df Model:                          13                                         
@@ -612,8 +612,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.119
 Model:                            OLS   Adj. R-squared:                  0.099
 Method:                 Least Squares   F-statistic:                     5.926
-Date:                Sun, 29 Dec 2019   Prob (F-statistic):           1.02e-09
-Time:                        16:11:38   Log-Likelihood:                -306.74
+Date:                Wed, 01 Jan 2020   Prob (F-statistic):           1.02e-09
+Time:                        23:19:14   Log-Likelihood:                -306.74
 No. Observations:                 537   AIC:                             639.5
 Df Residuals:                     524   BIC:                             695.2
 Df Model:                          12                                         
@@ -651,8 +651,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.116
 Model:                            OLS   Adj. R-squared:                  0.097
 Method:                 Least Squares   F-statistic:                     6.257
-Date:                Sun, 29 Dec 2019   Prob (F-statistic):           9.78e-10
-Time:                        16:11:38   Log-Likelihood:                -307.83
+Date:                Wed, 01 Jan 2020   Prob (F-statistic):           9.78e-10
+Time:                        23:19:14   Log-Likelihood:                -307.83
 No. Observations:                 537   AIC:                             639.7
 Df Residuals:                     525   BIC:                             691.1
 Df Model:                          11                                         
@@ -689,8 +689,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.112
 Model:                            OLS   Adj. R-squared:                  0.095
 Method:                 Least Squares   F-statistic:                     6.618
-Date:                Sun, 29 Dec 2019   Prob (F-statistic):           1.06e-09
-Time:                        16:11:38   Log-Likelihood:                -309.09
+Date:                Wed, 01 Jan 2020   Prob (F-statistic):           1.06e-09
+Time:                        23:19:14   Log-Likelihood:                -309.09
 No. Observations:                 537   AIC:                             640.2
 Df Residuals:                     526   BIC:                             687.3
 Df Model:                          10                                         
@@ -726,8 +726,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.110
 Model:                            OLS   Adj. R-squared:                  0.094
 Method:                 Least Squares   F-statistic:                     7.207
-Date:                Sun, 29 Dec 2019   Prob (F-statistic):           6.67e-10
-Time:                        16:11:38   Log-Likelihood:                -309.74
+Date:                Wed, 01 Jan 2020   Prob (F-statistic):           6.67e-10
+Time:                        23:19:14   Log-Likelihood:                -309.74
 No. Observations:                 537   AIC:                             639.5
 Df Residuals:                     527   BIC:                             682.3
 Df Model:                           9                                         
@@ -762,8 +762,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.101
 Model:                            OLS   Adj. R-squared:                  0.089
 Method:                 Least Squares   F-statistic:                     8.487
-Date:                Sun, 29 Dec 2019   Prob (F-statistic):           7.28e-10
-Time:                        16:11:38   Log-Likelihood:                -312.33
+Date:                Wed, 01 Jan 2020   Prob (F-statistic):           7.28e-10
+Time:                        23:19:14   Log-Likelihood:                -312.33
 No. Observations:                 537   AIC:                             640.7
 Df Residuals:                     529   BIC:                             674.9
 Df Model:                           7                                         

--- a/results/ML/DT_cEnroll_nPSU_vs_Desertor/backwardElimination.xlsx
+++ b/results/ML/DT_cEnroll_nPSU_vs_Desertor/backwardElimination.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Reference\models\desertorstudent\results\ML\DT_cEnroll_nPSU_vs_Desertor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8931C79-5FEB-4537-A0C4-862EFEEC60FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8809B164-844B-486C-847F-E74439850FAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16800" yWindow="0" windowWidth="12000" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="23" sheetId="1" r:id="rId1"/>
@@ -117,8 +117,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.130
 Model:                            OLS   Adj. R-squared:                  0.091
 Method:                 Least Squares   F-statistic:                     3.343
-Date:                Wed, 01 Jan 2020   Prob (F-statistic):           4.01e-07
-Time:                        23:19:14   Log-Likelihood:                -303.41
+Date:                Thu, 02 Jan 2020   Prob (F-statistic):           4.01e-07
+Time:                        20:49:08   Log-Likelihood:                -303.41
 No. Observations:                 537   AIC:                             654.8
 Df Residuals:                     513   BIC:                             757.7
 Df Model:                          23                                         
@@ -167,8 +167,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.130
 Model:                            OLS   Adj. R-squared:                  0.093
 Method:                 Least Squares   F-statistic:                     3.502
-Date:                Wed, 01 Jan 2020   Prob (F-statistic):           2.09e-07
-Time:                        23:19:14   Log-Likelihood:                -303.41
+Date:                Thu, 02 Jan 2020   Prob (F-statistic):           2.09e-07
+Time:                        20:49:08   Log-Likelihood:                -303.41
 No. Observations:                 537   AIC:                             652.8
 Df Residuals:                     514   BIC:                             751.4
 Df Model:                          22                                         
@@ -216,8 +216,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.130
 Model:                            OLS   Adj. R-squared:                  0.095
 Method:                 Least Squares   F-statistic:                     3.675
-Date:                Wed, 01 Jan 2020   Prob (F-statistic):           1.06e-07
-Time:                        23:19:14   Log-Likelihood:                -303.41
+Date:                Thu, 02 Jan 2020   Prob (F-statistic):           1.06e-07
+Time:                        20:49:08   Log-Likelihood:                -303.41
 No. Observations:                 537   AIC:                             650.8
 Df Residuals:                     515   BIC:                             745.1
 Df Model:                          21                                         
@@ -264,8 +264,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.130
 Model:                            OLS   Adj. R-squared:                  0.097
 Method:                 Least Squares   F-statistic:                     3.865
-Date:                Wed, 01 Jan 2020   Prob (F-statistic):           5.28e-08
-Time:                        23:19:14   Log-Likelihood:                -303.43
+Date:                Thu, 02 Jan 2020   Prob (F-statistic):           5.28e-08
+Time:                        20:49:08   Log-Likelihood:                -303.43
 No. Observations:                 537   AIC:                             648.9
 Df Residuals:                     516   BIC:                             738.9
 Df Model:                          20                                         
@@ -311,8 +311,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.130
 Model:                            OLS   Adj. R-squared:                  0.098
 Method:                 Least Squares   F-statistic:                     4.072
-Date:                Wed, 01 Jan 2020   Prob (F-statistic):           2.61e-08
-Time:                        23:19:14   Log-Likelihood:                -303.46
+Date:                Thu, 02 Jan 2020   Prob (F-statistic):           2.61e-08
+Time:                        20:49:08   Log-Likelihood:                -303.46
 No. Observations:                 537   AIC:                             646.9
 Df Residuals:                     517   BIC:                             732.6
 Df Model:                          19                                         
@@ -357,8 +357,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.130
 Model:                            OLS   Adj. R-squared:                  0.099
 Method:                 Least Squares   F-statistic:                     4.285
-Date:                Wed, 01 Jan 2020   Prob (F-statistic):           1.40e-08
-Time:                        23:19:14   Log-Likelihood:                -303.64
+Date:                Thu, 02 Jan 2020   Prob (F-statistic):           1.40e-08
+Time:                        20:49:08   Log-Likelihood:                -303.64
 No. Observations:                 537   AIC:                             645.3
 Df Residuals:                     518   BIC:                             726.7
 Df Model:                          18                                         
@@ -402,8 +402,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.128
 Model:                            OLS   Adj. R-squared:                  0.100
 Method:                 Least Squares   F-statistic:                     4.489
-Date:                Wed, 01 Jan 2020   Prob (F-statistic):           8.96e-09
-Time:                        23:19:14   Log-Likelihood:                -304.08
+Date:                Thu, 02 Jan 2020   Prob (F-statistic):           8.96e-09
+Time:                        20:49:08   Log-Likelihood:                -304.08
 No. Observations:                 537   AIC:                             644.2
 Df Residuals:                     519   BIC:                             721.3
 Df Model:                          17                                         
@@ -446,8 +446,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.127
 Model:                            OLS   Adj. R-squared:                  0.100
 Method:                 Least Squares   F-statistic:                     4.718
-Date:                Wed, 01 Jan 2020   Prob (F-statistic):           5.60e-09
-Time:                        23:19:14   Log-Likelihood:                -304.51
+Date:                Thu, 02 Jan 2020   Prob (F-statistic):           5.60e-09
+Time:                        20:49:08   Log-Likelihood:                -304.51
 No. Observations:                 537   AIC:                             643.0
 Df Residuals:                     520   BIC:                             715.9
 Df Model:                          16                                         
@@ -489,8 +489,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.125
 Model:                            OLS   Adj. R-squared:                  0.100
 Method:                 Least Squares   F-statistic:                     4.982
-Date:                Wed, 01 Jan 2020   Prob (F-statistic):           3.35e-09
-Time:                        23:19:14   Log-Likelihood:                -304.92
+Date:                Thu, 02 Jan 2020   Prob (F-statistic):           3.35e-09
+Time:                        20:49:08   Log-Likelihood:                -304.92
 No. Observations:                 537   AIC:                             641.8
 Df Residuals:                     521   BIC:                             710.4
 Df Model:                          15                                         
@@ -531,8 +531,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.124
 Model:                            OLS   Adj. R-squared:                  0.100
 Method:                 Least Squares   F-statistic:                     5.261
-Date:                Wed, 01 Jan 2020   Prob (F-statistic):           2.20e-09
-Time:                        23:19:14   Log-Likelihood:                -305.47
+Date:                Thu, 02 Jan 2020   Prob (F-statistic):           2.20e-09
+Time:                        20:49:08   Log-Likelihood:                -305.47
 No. Observations:                 537   AIC:                             640.9
 Df Residuals:                     522   BIC:                             705.2
 Df Model:                          14                                         
@@ -572,8 +572,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.122
 Model:                            OLS   Adj. R-squared:                  0.100
 Method:                 Least Squares   F-statistic:                     5.567
-Date:                Wed, 01 Jan 2020   Prob (F-statistic):           1.52e-09
-Time:                        23:19:14   Log-Likelihood:                -306.11
+Date:                Thu, 02 Jan 2020   Prob (F-statistic):           1.52e-09
+Time:                        20:49:08   Log-Likelihood:                -306.11
 No. Observations:                 537   AIC:                             640.2
 Df Residuals:                     523   BIC:                             700.2
 Df Model:                          13                                         
@@ -612,8 +612,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.119
 Model:                            OLS   Adj. R-squared:                  0.099
 Method:                 Least Squares   F-statistic:                     5.926
-Date:                Wed, 01 Jan 2020   Prob (F-statistic):           1.02e-09
-Time:                        23:19:14   Log-Likelihood:                -306.74
+Date:                Thu, 02 Jan 2020   Prob (F-statistic):           1.02e-09
+Time:                        20:49:08   Log-Likelihood:                -306.74
 No. Observations:                 537   AIC:                             639.5
 Df Residuals:                     524   BIC:                             695.2
 Df Model:                          12                                         
@@ -651,8 +651,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.116
 Model:                            OLS   Adj. R-squared:                  0.097
 Method:                 Least Squares   F-statistic:                     6.257
-Date:                Wed, 01 Jan 2020   Prob (F-statistic):           9.78e-10
-Time:                        23:19:14   Log-Likelihood:                -307.83
+Date:                Thu, 02 Jan 2020   Prob (F-statistic):           9.78e-10
+Time:                        20:49:08   Log-Likelihood:                -307.83
 No. Observations:                 537   AIC:                             639.7
 Df Residuals:                     525   BIC:                             691.1
 Df Model:                          11                                         
@@ -689,8 +689,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.112
 Model:                            OLS   Adj. R-squared:                  0.095
 Method:                 Least Squares   F-statistic:                     6.618
-Date:                Wed, 01 Jan 2020   Prob (F-statistic):           1.06e-09
-Time:                        23:19:14   Log-Likelihood:                -309.09
+Date:                Thu, 02 Jan 2020   Prob (F-statistic):           1.06e-09
+Time:                        20:49:08   Log-Likelihood:                -309.09
 No. Observations:                 537   AIC:                             640.2
 Df Residuals:                     526   BIC:                             687.3
 Df Model:                          10                                         
@@ -726,8 +726,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.110
 Model:                            OLS   Adj. R-squared:                  0.094
 Method:                 Least Squares   F-statistic:                     7.207
-Date:                Wed, 01 Jan 2020   Prob (F-statistic):           6.67e-10
-Time:                        23:19:14   Log-Likelihood:                -309.74
+Date:                Thu, 02 Jan 2020   Prob (F-statistic):           6.67e-10
+Time:                        20:49:08   Log-Likelihood:                -309.74
 No. Observations:                 537   AIC:                             639.5
 Df Residuals:                     527   BIC:                             682.3
 Df Model:                           9                                         
@@ -762,8 +762,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.101
 Model:                            OLS   Adj. R-squared:                  0.089
 Method:                 Least Squares   F-statistic:                     8.487
-Date:                Wed, 01 Jan 2020   Prob (F-statistic):           7.28e-10
-Time:                        23:19:14   Log-Likelihood:                -312.33
+Date:                Thu, 02 Jan 2020   Prob (F-statistic):           7.28e-10
+Time:                        20:49:08   Log-Likelihood:                -312.33
 No. Observations:                 537   AIC:                             640.7
 Df Residuals:                     529   BIC:                             674.9
 Df Model:                           7                                         

--- a/results/ML/DT_cEnroll_nPSU_vs_Desertor/backwardElimination.xlsx
+++ b/results/ML/DT_cEnroll_nPSU_vs_Desertor/backwardElimination.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Reference\models\desertorstudent\results\ML\DT_cEnroll_nPSU_vs_Desertor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Reference\models\desertorstudent\results\ML\DT_cEnroll_nPSU_vs_Desertor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8809B164-844B-486C-847F-E74439850FAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9112173-9BA4-4E25-A4EC-4DE754570607}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -117,8 +117,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.130
 Model:                            OLS   Adj. R-squared:                  0.091
 Method:                 Least Squares   F-statistic:                     3.343
-Date:                Thu, 02 Jan 2020   Prob (F-statistic):           4.01e-07
-Time:                        20:49:08   Log-Likelihood:                -303.41
+Date:                Sun, 05 Jan 2020   Prob (F-statistic):           4.01e-07
+Time:                        21:22:49   Log-Likelihood:                -303.41
 No. Observations:                 537   AIC:                             654.8
 Df Residuals:                     513   BIC:                             757.7
 Df Model:                          23                                         
@@ -167,8 +167,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.130
 Model:                            OLS   Adj. R-squared:                  0.093
 Method:                 Least Squares   F-statistic:                     3.502
-Date:                Thu, 02 Jan 2020   Prob (F-statistic):           2.09e-07
-Time:                        20:49:08   Log-Likelihood:                -303.41
+Date:                Sun, 05 Jan 2020   Prob (F-statistic):           2.09e-07
+Time:                        21:22:49   Log-Likelihood:                -303.41
 No. Observations:                 537   AIC:                             652.8
 Df Residuals:                     514   BIC:                             751.4
 Df Model:                          22                                         
@@ -216,8 +216,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.130
 Model:                            OLS   Adj. R-squared:                  0.095
 Method:                 Least Squares   F-statistic:                     3.675
-Date:                Thu, 02 Jan 2020   Prob (F-statistic):           1.06e-07
-Time:                        20:49:08   Log-Likelihood:                -303.41
+Date:                Sun, 05 Jan 2020   Prob (F-statistic):           1.06e-07
+Time:                        21:22:49   Log-Likelihood:                -303.41
 No. Observations:                 537   AIC:                             650.8
 Df Residuals:                     515   BIC:                             745.1
 Df Model:                          21                                         
@@ -264,8 +264,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.130
 Model:                            OLS   Adj. R-squared:                  0.097
 Method:                 Least Squares   F-statistic:                     3.865
-Date:                Thu, 02 Jan 2020   Prob (F-statistic):           5.28e-08
-Time:                        20:49:08   Log-Likelihood:                -303.43
+Date:                Sun, 05 Jan 2020   Prob (F-statistic):           5.28e-08
+Time:                        21:22:49   Log-Likelihood:                -303.43
 No. Observations:                 537   AIC:                             648.9
 Df Residuals:                     516   BIC:                             738.9
 Df Model:                          20                                         
@@ -311,8 +311,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.130
 Model:                            OLS   Adj. R-squared:                  0.098
 Method:                 Least Squares   F-statistic:                     4.072
-Date:                Thu, 02 Jan 2020   Prob (F-statistic):           2.61e-08
-Time:                        20:49:08   Log-Likelihood:                -303.46
+Date:                Sun, 05 Jan 2020   Prob (F-statistic):           2.61e-08
+Time:                        21:22:49   Log-Likelihood:                -303.46
 No. Observations:                 537   AIC:                             646.9
 Df Residuals:                     517   BIC:                             732.6
 Df Model:                          19                                         
@@ -357,8 +357,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.130
 Model:                            OLS   Adj. R-squared:                  0.099
 Method:                 Least Squares   F-statistic:                     4.285
-Date:                Thu, 02 Jan 2020   Prob (F-statistic):           1.40e-08
-Time:                        20:49:08   Log-Likelihood:                -303.64
+Date:                Sun, 05 Jan 2020   Prob (F-statistic):           1.40e-08
+Time:                        21:22:49   Log-Likelihood:                -303.64
 No. Observations:                 537   AIC:                             645.3
 Df Residuals:                     518   BIC:                             726.7
 Df Model:                          18                                         
@@ -402,8 +402,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.128
 Model:                            OLS   Adj. R-squared:                  0.100
 Method:                 Least Squares   F-statistic:                     4.489
-Date:                Thu, 02 Jan 2020   Prob (F-statistic):           8.96e-09
-Time:                        20:49:08   Log-Likelihood:                -304.08
+Date:                Sun, 05 Jan 2020   Prob (F-statistic):           8.96e-09
+Time:                        21:22:49   Log-Likelihood:                -304.08
 No. Observations:                 537   AIC:                             644.2
 Df Residuals:                     519   BIC:                             721.3
 Df Model:                          17                                         
@@ -446,8 +446,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.127
 Model:                            OLS   Adj. R-squared:                  0.100
 Method:                 Least Squares   F-statistic:                     4.718
-Date:                Thu, 02 Jan 2020   Prob (F-statistic):           5.60e-09
-Time:                        20:49:08   Log-Likelihood:                -304.51
+Date:                Sun, 05 Jan 2020   Prob (F-statistic):           5.60e-09
+Time:                        21:22:49   Log-Likelihood:                -304.51
 No. Observations:                 537   AIC:                             643.0
 Df Residuals:                     520   BIC:                             715.9
 Df Model:                          16                                         
@@ -489,8 +489,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.125
 Model:                            OLS   Adj. R-squared:                  0.100
 Method:                 Least Squares   F-statistic:                     4.982
-Date:                Thu, 02 Jan 2020   Prob (F-statistic):           3.35e-09
-Time:                        20:49:08   Log-Likelihood:                -304.92
+Date:                Sun, 05 Jan 2020   Prob (F-statistic):           3.35e-09
+Time:                        21:22:49   Log-Likelihood:                -304.92
 No. Observations:                 537   AIC:                             641.8
 Df Residuals:                     521   BIC:                             710.4
 Df Model:                          15                                         
@@ -531,8 +531,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.124
 Model:                            OLS   Adj. R-squared:                  0.100
 Method:                 Least Squares   F-statistic:                     5.261
-Date:                Thu, 02 Jan 2020   Prob (F-statistic):           2.20e-09
-Time:                        20:49:08   Log-Likelihood:                -305.47
+Date:                Sun, 05 Jan 2020   Prob (F-statistic):           2.20e-09
+Time:                        21:22:49   Log-Likelihood:                -305.47
 No. Observations:                 537   AIC:                             640.9
 Df Residuals:                     522   BIC:                             705.2
 Df Model:                          14                                         
@@ -572,8 +572,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.122
 Model:                            OLS   Adj. R-squared:                  0.100
 Method:                 Least Squares   F-statistic:                     5.567
-Date:                Thu, 02 Jan 2020   Prob (F-statistic):           1.52e-09
-Time:                        20:49:08   Log-Likelihood:                -306.11
+Date:                Sun, 05 Jan 2020   Prob (F-statistic):           1.52e-09
+Time:                        21:22:49   Log-Likelihood:                -306.11
 No. Observations:                 537   AIC:                             640.2
 Df Residuals:                     523   BIC:                             700.2
 Df Model:                          13                                         
@@ -612,8 +612,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.119
 Model:                            OLS   Adj. R-squared:                  0.099
 Method:                 Least Squares   F-statistic:                     5.926
-Date:                Thu, 02 Jan 2020   Prob (F-statistic):           1.02e-09
-Time:                        20:49:08   Log-Likelihood:                -306.74
+Date:                Sun, 05 Jan 2020   Prob (F-statistic):           1.02e-09
+Time:                        21:22:49   Log-Likelihood:                -306.74
 No. Observations:                 537   AIC:                             639.5
 Df Residuals:                     524   BIC:                             695.2
 Df Model:                          12                                         
@@ -651,8 +651,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.116
 Model:                            OLS   Adj. R-squared:                  0.097
 Method:                 Least Squares   F-statistic:                     6.257
-Date:                Thu, 02 Jan 2020   Prob (F-statistic):           9.78e-10
-Time:                        20:49:08   Log-Likelihood:                -307.83
+Date:                Sun, 05 Jan 2020   Prob (F-statistic):           9.78e-10
+Time:                        21:22:49   Log-Likelihood:                -307.83
 No. Observations:                 537   AIC:                             639.7
 Df Residuals:                     525   BIC:                             691.1
 Df Model:                          11                                         
@@ -689,8 +689,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.112
 Model:                            OLS   Adj. R-squared:                  0.095
 Method:                 Least Squares   F-statistic:                     6.618
-Date:                Thu, 02 Jan 2020   Prob (F-statistic):           1.06e-09
-Time:                        20:49:08   Log-Likelihood:                -309.09
+Date:                Sun, 05 Jan 2020   Prob (F-statistic):           1.06e-09
+Time:                        21:22:49   Log-Likelihood:                -309.09
 No. Observations:                 537   AIC:                             640.2
 Df Residuals:                     526   BIC:                             687.3
 Df Model:                          10                                         
@@ -726,8 +726,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.110
 Model:                            OLS   Adj. R-squared:                  0.094
 Method:                 Least Squares   F-statistic:                     7.207
-Date:                Thu, 02 Jan 2020   Prob (F-statistic):           6.67e-10
-Time:                        20:49:08   Log-Likelihood:                -309.74
+Date:                Sun, 05 Jan 2020   Prob (F-statistic):           6.67e-10
+Time:                        21:22:49   Log-Likelihood:                -309.74
 No. Observations:                 537   AIC:                             639.5
 Df Residuals:                     527   BIC:                             682.3
 Df Model:                           9                                         
@@ -762,8 +762,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.101
 Model:                            OLS   Adj. R-squared:                  0.089
 Method:                 Least Squares   F-statistic:                     8.487
-Date:                Thu, 02 Jan 2020   Prob (F-statistic):           7.28e-10
-Time:                        20:49:08   Log-Likelihood:                -312.33
+Date:                Sun, 05 Jan 2020   Prob (F-statistic):           7.28e-10
+Time:                        21:22:49   Log-Likelihood:                -312.33
 No. Observations:                 537   AIC:                             640.7
 Df Residuals:                     529   BIC:                             674.9
 Df Model:                           7                                         

--- a/results/ML/DT_cEnroll_nPSU_vs_Desertor/backwardElimination.xlsx
+++ b/results/ML/DT_cEnroll_nPSU_vs_Desertor/backwardElimination.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Reference\models\desertorstudent\results\ML\DT_cEnroll_nPSU_vs_Desertor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Reference\models\desertorstudent\results\ML\DT_cEnroll_nPSU_vs_Desertor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9112173-9BA4-4E25-A4EC-4DE754570607}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05C8BDB2-9799-471A-AF6D-A535F62B38BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="690" yWindow="0" windowWidth="16800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="23" sheetId="1" r:id="rId1"/>
@@ -117,8 +117,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.130
 Model:                            OLS   Adj. R-squared:                  0.091
 Method:                 Least Squares   F-statistic:                     3.343
-Date:                Sun, 05 Jan 2020   Prob (F-statistic):           4.01e-07
-Time:                        21:22:49   Log-Likelihood:                -303.41
+Date:                Wed, 08 Jan 2020   Prob (F-statistic):           4.01e-07
+Time:                        19:07:52   Log-Likelihood:                -303.41
 No. Observations:                 537   AIC:                             654.8
 Df Residuals:                     513   BIC:                             757.7
 Df Model:                          23                                         
@@ -167,8 +167,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.130
 Model:                            OLS   Adj. R-squared:                  0.093
 Method:                 Least Squares   F-statistic:                     3.502
-Date:                Sun, 05 Jan 2020   Prob (F-statistic):           2.09e-07
-Time:                        21:22:49   Log-Likelihood:                -303.41
+Date:                Wed, 08 Jan 2020   Prob (F-statistic):           2.09e-07
+Time:                        19:07:52   Log-Likelihood:                -303.41
 No. Observations:                 537   AIC:                             652.8
 Df Residuals:                     514   BIC:                             751.4
 Df Model:                          22                                         
@@ -216,8 +216,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.130
 Model:                            OLS   Adj. R-squared:                  0.095
 Method:                 Least Squares   F-statistic:                     3.675
-Date:                Sun, 05 Jan 2020   Prob (F-statistic):           1.06e-07
-Time:                        21:22:49   Log-Likelihood:                -303.41
+Date:                Wed, 08 Jan 2020   Prob (F-statistic):           1.06e-07
+Time:                        19:07:52   Log-Likelihood:                -303.41
 No. Observations:                 537   AIC:                             650.8
 Df Residuals:                     515   BIC:                             745.1
 Df Model:                          21                                         
@@ -264,8 +264,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.130
 Model:                            OLS   Adj. R-squared:                  0.097
 Method:                 Least Squares   F-statistic:                     3.865
-Date:                Sun, 05 Jan 2020   Prob (F-statistic):           5.28e-08
-Time:                        21:22:49   Log-Likelihood:                -303.43
+Date:                Wed, 08 Jan 2020   Prob (F-statistic):           5.28e-08
+Time:                        19:07:52   Log-Likelihood:                -303.43
 No. Observations:                 537   AIC:                             648.9
 Df Residuals:                     516   BIC:                             738.9
 Df Model:                          20                                         
@@ -311,8 +311,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.130
 Model:                            OLS   Adj. R-squared:                  0.098
 Method:                 Least Squares   F-statistic:                     4.072
-Date:                Sun, 05 Jan 2020   Prob (F-statistic):           2.61e-08
-Time:                        21:22:49   Log-Likelihood:                -303.46
+Date:                Wed, 08 Jan 2020   Prob (F-statistic):           2.61e-08
+Time:                        19:07:52   Log-Likelihood:                -303.46
 No. Observations:                 537   AIC:                             646.9
 Df Residuals:                     517   BIC:                             732.6
 Df Model:                          19                                         
@@ -357,8 +357,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.130
 Model:                            OLS   Adj. R-squared:                  0.099
 Method:                 Least Squares   F-statistic:                     4.285
-Date:                Sun, 05 Jan 2020   Prob (F-statistic):           1.40e-08
-Time:                        21:22:49   Log-Likelihood:                -303.64
+Date:                Wed, 08 Jan 2020   Prob (F-statistic):           1.40e-08
+Time:                        19:07:52   Log-Likelihood:                -303.64
 No. Observations:                 537   AIC:                             645.3
 Df Residuals:                     518   BIC:                             726.7
 Df Model:                          18                                         
@@ -402,8 +402,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.128
 Model:                            OLS   Adj. R-squared:                  0.100
 Method:                 Least Squares   F-statistic:                     4.489
-Date:                Sun, 05 Jan 2020   Prob (F-statistic):           8.96e-09
-Time:                        21:22:49   Log-Likelihood:                -304.08
+Date:                Wed, 08 Jan 2020   Prob (F-statistic):           8.96e-09
+Time:                        19:07:52   Log-Likelihood:                -304.08
 No. Observations:                 537   AIC:                             644.2
 Df Residuals:                     519   BIC:                             721.3
 Df Model:                          17                                         
@@ -446,8 +446,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.127
 Model:                            OLS   Adj. R-squared:                  0.100
 Method:                 Least Squares   F-statistic:                     4.718
-Date:                Sun, 05 Jan 2020   Prob (F-statistic):           5.60e-09
-Time:                        21:22:49   Log-Likelihood:                -304.51
+Date:                Wed, 08 Jan 2020   Prob (F-statistic):           5.60e-09
+Time:                        19:07:52   Log-Likelihood:                -304.51
 No. Observations:                 537   AIC:                             643.0
 Df Residuals:                     520   BIC:                             715.9
 Df Model:                          16                                         
@@ -489,8 +489,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.125
 Model:                            OLS   Adj. R-squared:                  0.100
 Method:                 Least Squares   F-statistic:                     4.982
-Date:                Sun, 05 Jan 2020   Prob (F-statistic):           3.35e-09
-Time:                        21:22:49   Log-Likelihood:                -304.92
+Date:                Wed, 08 Jan 2020   Prob (F-statistic):           3.35e-09
+Time:                        19:07:52   Log-Likelihood:                -304.92
 No. Observations:                 537   AIC:                             641.8
 Df Residuals:                     521   BIC:                             710.4
 Df Model:                          15                                         
@@ -531,8 +531,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.124
 Model:                            OLS   Adj. R-squared:                  0.100
 Method:                 Least Squares   F-statistic:                     5.261
-Date:                Sun, 05 Jan 2020   Prob (F-statistic):           2.20e-09
-Time:                        21:22:49   Log-Likelihood:                -305.47
+Date:                Wed, 08 Jan 2020   Prob (F-statistic):           2.20e-09
+Time:                        19:07:52   Log-Likelihood:                -305.47
 No. Observations:                 537   AIC:                             640.9
 Df Residuals:                     522   BIC:                             705.2
 Df Model:                          14                                         
@@ -572,8 +572,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.122
 Model:                            OLS   Adj. R-squared:                  0.100
 Method:                 Least Squares   F-statistic:                     5.567
-Date:                Sun, 05 Jan 2020   Prob (F-statistic):           1.52e-09
-Time:                        21:22:49   Log-Likelihood:                -306.11
+Date:                Wed, 08 Jan 2020   Prob (F-statistic):           1.52e-09
+Time:                        19:07:52   Log-Likelihood:                -306.11
 No. Observations:                 537   AIC:                             640.2
 Df Residuals:                     523   BIC:                             700.2
 Df Model:                          13                                         
@@ -612,8 +612,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.119
 Model:                            OLS   Adj. R-squared:                  0.099
 Method:                 Least Squares   F-statistic:                     5.926
-Date:                Sun, 05 Jan 2020   Prob (F-statistic):           1.02e-09
-Time:                        21:22:49   Log-Likelihood:                -306.74
+Date:                Wed, 08 Jan 2020   Prob (F-statistic):           1.02e-09
+Time:                        19:07:52   Log-Likelihood:                -306.74
 No. Observations:                 537   AIC:                             639.5
 Df Residuals:                     524   BIC:                             695.2
 Df Model:                          12                                         
@@ -651,8 +651,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.116
 Model:                            OLS   Adj. R-squared:                  0.097
 Method:                 Least Squares   F-statistic:                     6.257
-Date:                Sun, 05 Jan 2020   Prob (F-statistic):           9.78e-10
-Time:                        21:22:49   Log-Likelihood:                -307.83
+Date:                Wed, 08 Jan 2020   Prob (F-statistic):           9.78e-10
+Time:                        19:07:52   Log-Likelihood:                -307.83
 No. Observations:                 537   AIC:                             639.7
 Df Residuals:                     525   BIC:                             691.1
 Df Model:                          11                                         
@@ -689,8 +689,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.112
 Model:                            OLS   Adj. R-squared:                  0.095
 Method:                 Least Squares   F-statistic:                     6.618
-Date:                Sun, 05 Jan 2020   Prob (F-statistic):           1.06e-09
-Time:                        21:22:49   Log-Likelihood:                -309.09
+Date:                Wed, 08 Jan 2020   Prob (F-statistic):           1.06e-09
+Time:                        19:07:52   Log-Likelihood:                -309.09
 No. Observations:                 537   AIC:                             640.2
 Df Residuals:                     526   BIC:                             687.3
 Df Model:                          10                                         
@@ -726,8 +726,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.110
 Model:                            OLS   Adj. R-squared:                  0.094
 Method:                 Least Squares   F-statistic:                     7.207
-Date:                Sun, 05 Jan 2020   Prob (F-statistic):           6.67e-10
-Time:                        21:22:49   Log-Likelihood:                -309.74
+Date:                Wed, 08 Jan 2020   Prob (F-statistic):           6.67e-10
+Time:                        19:07:52   Log-Likelihood:                -309.74
 No. Observations:                 537   AIC:                             639.5
 Df Residuals:                     527   BIC:                             682.3
 Df Model:                           9                                         
@@ -762,8 +762,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.101
 Model:                            OLS   Adj. R-squared:                  0.089
 Method:                 Least Squares   F-statistic:                     8.487
-Date:                Sun, 05 Jan 2020   Prob (F-statistic):           7.28e-10
-Time:                        21:22:49   Log-Likelihood:                -312.33
+Date:                Wed, 08 Jan 2020   Prob (F-statistic):           7.28e-10
+Time:                        19:07:52   Log-Likelihood:                -312.33
 No. Observations:                 537   AIC:                             640.7
 Df Residuals:                     529   BIC:                             674.9
 Df Model:                           7                                         
